--- a/src/test/resources/test_files/working/Image/valid_input 1.xlsx
+++ b/src/test/resources/test_files/working/Image/valid_input 1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28724"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://airarabia-my.sharepoint.com/personal/malhaq_isa_ae1/Documents/Documents/ExcelColumnConvert/ExcelColumnConvert/src/test/resources/test_files/originals/"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -111,7 +111,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -164,49 +163,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="4267200" cy="2857500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -505,580 +461,580 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0">
+      <c r="B1">
         <v>100</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0">
+      <c r="D1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0">
+      <c r="B2">
         <v>200</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="0">
+      <c r="D2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3">
         <v>300</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D3">
         <v>3.3</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>200</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="0">
+      <c r="D4">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="0">
+      <c r="B5">
         <v>500</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="0">
+      <c r="D5">
         <v>5.5</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="E5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B6">
         <v>100</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="0">
+      <c r="D6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E6" t="s" s="0">
+      <c r="E6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="0">
+      <c r="B7">
         <v>200</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="0">
+      <c r="D7">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E7" t="s" s="0">
+      <c r="E7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="0">
+      <c r="B8">
         <v>300</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="0">
+      <c r="D8">
         <v>3.3</v>
       </c>
-      <c r="E8" t="s" s="0">
+      <c r="E8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="0">
+      <c r="B9">
         <v>200</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="0">
+      <c r="D9">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E9" t="s" s="0">
+      <c r="E9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" t="s" s="0">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="0">
+      <c r="B10">
         <v>500</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="0">
+      <c r="D10">
         <v>5.5</v>
       </c>
-      <c r="E10" t="s" s="0">
+      <c r="E10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" t="s" s="0">
+      <c r="A11" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="0">
+      <c r="B11">
         <v>100</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="C11" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="0">
+      <c r="D11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E11" t="s" s="0">
+      <c r="E11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" t="s" s="0">
+      <c r="A12" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="0">
+      <c r="B12">
         <v>200</v>
       </c>
-      <c r="C12" t="s" s="0">
+      <c r="C12" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="0">
+      <c r="D12">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E12" t="s" s="0">
+      <c r="E12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" t="s" s="0">
+      <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="0">
+      <c r="B13">
         <v>300</v>
       </c>
-      <c r="C13" t="s" s="0">
+      <c r="C13" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="0">
+      <c r="D13">
         <v>3.3</v>
       </c>
-      <c r="E13" t="s" s="0">
+      <c r="E13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" t="s" s="0">
+      <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="0">
+      <c r="B14">
         <v>200</v>
       </c>
-      <c r="C14" t="s" s="0">
+      <c r="C14" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="0">
+      <c r="D14">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E14" t="s" s="0">
+      <c r="E14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" t="s" s="0">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="0">
+      <c r="B15">
         <v>500</v>
       </c>
-      <c r="C15" t="s" s="0">
+      <c r="C15" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="0">
+      <c r="D15">
         <v>5.5</v>
       </c>
-      <c r="E15" t="s" s="0">
+      <c r="E15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" t="s" s="0">
+      <c r="A16" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="0">
+      <c r="B16">
         <v>328.57142857142901</v>
       </c>
-      <c r="C16" t="s" s="0">
+      <c r="C16" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="0">
+      <c r="D16">
         <v>4.2428571428571402</v>
       </c>
-      <c r="E16" t="s" s="0">
+      <c r="E16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" t="s" s="0">
+      <c r="A17" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="0">
+      <c r="B17">
         <v>337.142857142857</v>
       </c>
-      <c r="C17" t="s" s="0">
+      <c r="C17" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="0">
+      <c r="D17">
         <v>4.3607142857142902</v>
       </c>
-      <c r="E17" t="s" s="0">
+      <c r="E17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" t="s" s="0">
+      <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="0">
+      <c r="B18">
         <v>345.71428571428601</v>
       </c>
-      <c r="C18" t="s" s="0">
+      <c r="C18" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="0">
+      <c r="D18">
         <v>4.4785714285714304</v>
       </c>
-      <c r="E18" t="s" s="0">
+      <c r="E18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" t="s" s="0">
+      <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="0">
+      <c r="B19">
         <v>354.28571428571399</v>
       </c>
-      <c r="C19" t="s" s="0">
+      <c r="C19" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="0">
+      <c r="D19">
         <v>4.5964285714285698</v>
       </c>
-      <c r="E19" t="s" s="0">
+      <c r="E19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" t="s" s="0">
+      <c r="A20" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="0">
+      <c r="B20">
         <v>362.857142857143</v>
       </c>
-      <c r="C20" t="s" s="0">
+      <c r="C20" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="0">
+      <c r="D20">
         <v>4.71428571428571</v>
       </c>
-      <c r="E20" t="s" s="0">
+      <c r="E20" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" t="s" s="0">
+      <c r="A21" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="0">
+      <c r="B21">
         <v>371.42857142857099</v>
       </c>
-      <c r="C21" t="s" s="0">
+      <c r="C21" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="0">
+      <c r="D21">
         <v>4.83214285714286</v>
       </c>
-      <c r="E21" t="s" s="0">
+      <c r="E21" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" t="s" s="0">
+      <c r="A22" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="0">
+      <c r="B22">
         <v>380</v>
       </c>
-      <c r="C22" t="s" s="0">
+      <c r="C22" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="0">
+      <c r="D22">
         <v>4.95</v>
       </c>
-      <c r="E22" t="s" s="0">
+      <c r="E22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" t="s" s="0">
+      <c r="A23" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="0">
+      <c r="B23">
         <v>388.57142857142901</v>
       </c>
-      <c r="C23" t="s" s="0">
+      <c r="C23" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="0">
+      <c r="D23">
         <v>5.0678571428571404</v>
       </c>
-      <c r="E23" t="s" s="0">
+      <c r="E23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" t="s" s="0">
+      <c r="A24" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="0">
+      <c r="B24">
         <v>397.142857142857</v>
       </c>
-      <c r="C24" t="s" s="0">
+      <c r="C24" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="0">
+      <c r="D24">
         <v>5.1857142857142904</v>
       </c>
-      <c r="E24" t="s" s="0">
+      <c r="E24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" t="s" s="0">
+      <c r="A25" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="0">
+      <c r="B25">
         <v>405.71428571428601</v>
       </c>
-      <c r="C25" t="s" s="0">
+      <c r="C25" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="0">
+      <c r="D25">
         <v>5.3035714285714297</v>
       </c>
-      <c r="E25" t="s" s="0">
+      <c r="E25" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" t="s" s="0">
+      <c r="A26" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="0">
+      <c r="B26">
         <v>414.28571428571399</v>
       </c>
-      <c r="C26" t="s" s="0">
+      <c r="C26" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="0">
+      <c r="D26">
         <v>5.4214285714285699</v>
       </c>
-      <c r="E26" t="s" s="0">
+      <c r="E26" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" t="s" s="0">
+      <c r="A27" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="0">
+      <c r="B27">
         <v>422.857142857143</v>
       </c>
-      <c r="C27" t="s" s="0">
+      <c r="C27" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="0">
+      <c r="D27">
         <v>5.5392857142857101</v>
       </c>
-      <c r="E27" t="s" s="0">
+      <c r="E27" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" t="s" s="0">
+      <c r="A28" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="0">
+      <c r="B28">
         <v>431.42857142857099</v>
       </c>
-      <c r="C28" t="s" s="0">
+      <c r="C28" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="0">
+      <c r="D28">
         <v>5.6571428571428601</v>
       </c>
-      <c r="E28" t="s" s="0">
+      <c r="E28" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" t="s" s="0">
+      <c r="A29" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="0">
+      <c r="B29">
         <v>440</v>
       </c>
-      <c r="C29" t="s" s="0">
+      <c r="C29" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="0">
+      <c r="D29">
         <v>5.7750000000000004</v>
       </c>
-      <c r="E29" t="s" s="0">
+      <c r="E29" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" t="s" s="0">
+      <c r="A30" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="0">
+      <c r="B30">
         <v>448.57142857142799</v>
       </c>
-      <c r="C30" t="s" s="0">
+      <c r="C30" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="0">
+      <c r="D30">
         <v>5.8928571428571397</v>
       </c>
-      <c r="E30" t="s" s="0">
+      <c r="E30" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" t="s" s="0">
+      <c r="A31" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="0">
+      <c r="B31">
         <v>457.142857142857</v>
       </c>
-      <c r="C31" t="s" s="0">
+      <c r="C31" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="0">
+      <c r="D31">
         <v>6.0107142857142897</v>
       </c>
-      <c r="E31" t="s" s="0">
+      <c r="E31" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" t="s" s="0">
+      <c r="A32" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="0">
+      <c r="B32">
         <v>465.71428571428601</v>
       </c>
-      <c r="C32" t="s" s="0">
+      <c r="C32" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="0">
+      <c r="D32">
         <v>6.1285714285714299</v>
       </c>
-      <c r="E32" t="s" s="0">
+      <c r="E32" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" t="s" s="0">
+      <c r="A33" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="0">
+      <c r="B33">
         <v>474.28571428571399</v>
       </c>
-      <c r="C33" t="s" s="0">
+      <c r="C33" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="0">
+      <c r="D33">
         <v>6.2464285714285701</v>
       </c>
-      <c r="E33" t="s" s="0">
+      <c r="E33" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" t="s" s="0">
+      <c r="A34" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="0">
+      <c r="B34">
         <v>482.857142857143</v>
       </c>
-      <c r="C34" t="s" s="0">
+      <c r="C34" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="0">
+      <c r="D34">
         <v>6.3642857142857103</v>
       </c>
-      <c r="E34" t="s" s="0">
+      <c r="E34" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1088,6 +1044,5 @@
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Classification: External</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>